--- a/assets/笔记/学习计划.xlsx
+++ b/assets/笔记/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\blog\assets\笔记\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zpcs\blog\assets\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA32CD3-79CC-4D93-9420-B7363A9B8CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFD30-82BC-4364-A266-612127490083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="97">
   <si>
     <t>学习路线</t>
   </si>
@@ -341,7 +341,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>学习中</t>
+    <t>值得二刷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,56 +487,6 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39991454817346722"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -595,6 +546,56 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -909,23 +910,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -948,7 +949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -965,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -979,7 +980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -993,7 +994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1172,7 +1173,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>92</v>
       </c>
@@ -1247,8 +1248,11 @@
       <c r="F21" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>80</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>65</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>66</v>
       </c>
@@ -1533,8 +1537,11 @@
       <c r="E41" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>86</v>
       </c>
@@ -1581,8 +1588,11 @@
       <c r="F44" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>69</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>70</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
@@ -1640,7 +1650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>14</v>
       </c>
@@ -1656,8 +1666,11 @@
       <c r="F49" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -1672,8 +1685,11 @@
         <v>33</v>
       </c>
       <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>73</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>74</v>
       </c>
@@ -1703,7 +1719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>75</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>76</v>
       </c>
@@ -1733,7 +1749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>77</v>
       </c>
@@ -1746,8 +1762,14 @@
       <c r="E55" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
@@ -1761,7 +1783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>48</v>
       </c>
@@ -1778,8 +1800,11 @@
       <c r="F57" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>49</v>
       </c>
@@ -1794,7 +1819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>42</v>
       </c>
@@ -1809,7 +1834,7 @@
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>83</v>
       </c>
@@ -1825,8 +1850,11 @@
       <c r="F60" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>94</v>
       </c>
@@ -1834,49 +1862,58 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>96</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:D1 F1:XFD1 A2:XFD65522">
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="11" priority="80">
       <formula>$D1="未学习"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="82">
+    <cfRule type="expression" dxfId="10" priority="82">
       <formula>$D1="已学习"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="9" priority="83">
       <formula>$D1="学习中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="84">
+    <cfRule type="expression" dxfId="8" priority="84">
       <formula>$D1="忽略"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$D1="关闭"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>#REF!="紧急重要"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>#REF!="紧急非重要"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>#REF!="非紧急重要"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>#REF!="非紧急非重要"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D1="未处理"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$D1="处理中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$D1="已处理"</formula>
     </cfRule>
   </conditionalFormatting>
